--- a/data_palm_oil.xlsx
+++ b/data_palm_oil.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rajkumar\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{44617F33-5FB7-48CF-BBB1-752F8244E3F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64719209-7BFE-4C48-BDD8-2A46B0E42EB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{57A65ACC-476A-4F18-AE02-7048FFC38C5E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -221,6 +222,2518 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$A:$A</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="1048576"/>
+                <c:pt idx="0">
+                  <c:v>44926</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44895</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44865</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44834</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44804</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44773</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44742</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44712</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44681</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44651</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44620</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44592</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44561</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44530</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44469</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44439</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44408</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44377</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44347</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44316</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44286</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44255</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44227</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44196</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44165</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44135</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44104</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44074</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44043</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44012</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43982</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43951</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43890</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43861</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43830</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43799</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43769</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43738</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43708</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43677</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43646</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43616</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43585</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43555</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43524</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>43496</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>43465</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>43434</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>43404</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>43373</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>43343</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>43312</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>43281</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>43251</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>43220</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>43190</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>43159</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>43131</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>43100</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>43069</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>43039</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>43008</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>42978</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>42947</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>42916</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>42886</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>42855</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>42825</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>42794</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>42766</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>42735</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>42704</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>42674</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>42643</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>42613</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>42582</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>42551</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>42521</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>42490</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>42460</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>42429</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>42400</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>42369</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>42338</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>42308</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>42277</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>42247</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>42216</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>42185</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>42155</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>42124</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>42094</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>42063</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>42035</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>42004</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>41973</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>41943</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>41912</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>41882</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>41851</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>41820</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>41790</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>41759</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>41729</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>41698</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>41670</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>41639</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>41608</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>41578</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>41547</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>41517</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>41486</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>41455</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>41425</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>41394</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>41364</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>41333</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>41305</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>41274</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>41243</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>41213</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>41182</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>41152</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>41121</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>41090</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>41060</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>41029</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>40999</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>40968</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>40939</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>40908</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$1:$B$146</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="146"/>
+                <c:pt idx="0">
+                  <c:v>657605.99999998498</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>661073.58333331905</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>664541.16666665301</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>668008.74999998696</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>671476.33333332103</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>674943.91666665499</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>678411.49999998906</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>681879.08333332301</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>685346.66666665697</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>688814.24999999104</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>692281.83333332499</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>695749.41666665894</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>699217</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>702684.58333333302</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>706152.16666666605</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>709619.75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>713087.33333333302</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>716554.91666666605</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>720022.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>723490.08333333302</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>726957.66666666605</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>730425.25</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>733892.83333333302</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>737360.41666666605</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>740828</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>742303.58333333302</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>743779.16666666605</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>745254.75</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>746730.33333333302</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>748205.91666666605</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>749681.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>751157.08333333302</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>752632.66666666605</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>754108.25</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>755583.83333333302</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>757059.41666666605</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>758535</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>757620.58333333302</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>756706.16666666605</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>755791.75</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>754877.33333333302</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>753962.91666666605</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>753048.5</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>752134.08333333302</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>751219.66666666605</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>750305.25</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>749390.83333333302</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>748476.41666666605</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>747562</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>747670.16666666605</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>747778.33333333302</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>747886.5</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>747994.66666666605</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>748102.83333333302</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>748211</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>748319.16666666605</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>748427.33333333302</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>748535.5</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>748643.66666666605</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>748751.83333333302</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>748860</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>748590.83333333302</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>748321.66666666605</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>748052.5</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>747783.33333333302</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>747514.16666666605</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>747245</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>746975.83333333302</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>746706.66666666605</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>746437.5</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>746168.33333333302</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>745899.16666666605</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>745630</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>745126.08333333302</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>744622.16666666605</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>744118.25</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>743614.33333333302</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>743110.41666666605</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>742606.5</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>742102.58333333302</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>741598.66666666605</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>741094.75</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>740590.83333333302</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>740086.91666666605</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>739583</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>739073.33333333302</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>738563.66666666605</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>738054</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>737544.33333333302</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>737034.66666666605</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>736525</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>736015.33333333302</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>735505.66666666605</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>734996</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>734486.33333333302</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>733976.66666666605</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>733467</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>733235.91666666605</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>733004.83333333302</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>732773.75</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>732542.66666666605</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>732311.58333333302</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>732080.5</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>731849.41666666605</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>731618.33333333302</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>731387.25</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>731156.16666666605</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>730925.08333333302</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>730694</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>729313.66666666605</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>727933.33333333302</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>726553</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>725172.66666666605</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>723792.33333333302</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>722412</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>721031.66666666605</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>719651.33333333302</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>718271</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>716890.66666666605</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>715510.33333333302</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>714130</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>714714.58333333302</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>715299.16666666605</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>715883.75</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>716468.33333333302</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>717052.91666666605</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>717637.5</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>718222.08333333302</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>718806.66666666605</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>719391.25</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>719975.83333333302</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>720560.41666666605</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>721145</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1C65-4849-869C-58973E534D95}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1865373392"/>
+        <c:axId val="1865373808"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet3!$A:$A</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>m/d/yyyy</c:formatCode>
+                      <c:ptCount val="1048576"/>
+                      <c:pt idx="0">
+                        <c:v>44926</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>44895</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>44865</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>44834</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>44804</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>44773</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>44742</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>44712</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>44681</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>44651</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>44620</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>44592</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>44561</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>44530</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>44500</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>44469</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>44439</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>44408</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>44377</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>44347</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>44316</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>44286</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>44255</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>44227</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>44196</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>44165</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>44135</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>44104</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>44074</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>44043</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>44012</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>43982</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>43951</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>43921</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>43890</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>43861</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>43830</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>43799</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>43769</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>43738</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>43708</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>43677</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>43646</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>43616</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>43585</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>43555</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>43524</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>43496</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>43465</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>43434</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>43404</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>43373</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>43343</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>43312</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>43281</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>43251</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>43220</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>43190</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>43159</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>43131</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>43100</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>43069</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>43039</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>43008</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>42978</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>42947</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>42916</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>42886</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>42855</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>42825</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
+                        <c:v>42794</c:v>
+                      </c:pt>
+                      <c:pt idx="71">
+                        <c:v>42766</c:v>
+                      </c:pt>
+                      <c:pt idx="72">
+                        <c:v>42735</c:v>
+                      </c:pt>
+                      <c:pt idx="73">
+                        <c:v>42704</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>42674</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>42643</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>42613</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>42582</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>42551</c:v>
+                      </c:pt>
+                      <c:pt idx="79">
+                        <c:v>42521</c:v>
+                      </c:pt>
+                      <c:pt idx="80">
+                        <c:v>42490</c:v>
+                      </c:pt>
+                      <c:pt idx="81">
+                        <c:v>42460</c:v>
+                      </c:pt>
+                      <c:pt idx="82">
+                        <c:v>42429</c:v>
+                      </c:pt>
+                      <c:pt idx="83">
+                        <c:v>42400</c:v>
+                      </c:pt>
+                      <c:pt idx="84">
+                        <c:v>42369</c:v>
+                      </c:pt>
+                      <c:pt idx="85">
+                        <c:v>42338</c:v>
+                      </c:pt>
+                      <c:pt idx="86">
+                        <c:v>42308</c:v>
+                      </c:pt>
+                      <c:pt idx="87">
+                        <c:v>42277</c:v>
+                      </c:pt>
+                      <c:pt idx="88">
+                        <c:v>42247</c:v>
+                      </c:pt>
+                      <c:pt idx="89">
+                        <c:v>42216</c:v>
+                      </c:pt>
+                      <c:pt idx="90">
+                        <c:v>42185</c:v>
+                      </c:pt>
+                      <c:pt idx="91">
+                        <c:v>42155</c:v>
+                      </c:pt>
+                      <c:pt idx="92">
+                        <c:v>42124</c:v>
+                      </c:pt>
+                      <c:pt idx="93">
+                        <c:v>42094</c:v>
+                      </c:pt>
+                      <c:pt idx="94">
+                        <c:v>42063</c:v>
+                      </c:pt>
+                      <c:pt idx="95">
+                        <c:v>42035</c:v>
+                      </c:pt>
+                      <c:pt idx="96">
+                        <c:v>42004</c:v>
+                      </c:pt>
+                      <c:pt idx="97">
+                        <c:v>41973</c:v>
+                      </c:pt>
+                      <c:pt idx="98">
+                        <c:v>41943</c:v>
+                      </c:pt>
+                      <c:pt idx="99">
+                        <c:v>41912</c:v>
+                      </c:pt>
+                      <c:pt idx="100">
+                        <c:v>41882</c:v>
+                      </c:pt>
+                      <c:pt idx="101">
+                        <c:v>41851</c:v>
+                      </c:pt>
+                      <c:pt idx="102">
+                        <c:v>41820</c:v>
+                      </c:pt>
+                      <c:pt idx="103">
+                        <c:v>41790</c:v>
+                      </c:pt>
+                      <c:pt idx="104">
+                        <c:v>41759</c:v>
+                      </c:pt>
+                      <c:pt idx="105">
+                        <c:v>41729</c:v>
+                      </c:pt>
+                      <c:pt idx="106">
+                        <c:v>41698</c:v>
+                      </c:pt>
+                      <c:pt idx="107">
+                        <c:v>41670</c:v>
+                      </c:pt>
+                      <c:pt idx="108">
+                        <c:v>41639</c:v>
+                      </c:pt>
+                      <c:pt idx="109">
+                        <c:v>41608</c:v>
+                      </c:pt>
+                      <c:pt idx="110">
+                        <c:v>41578</c:v>
+                      </c:pt>
+                      <c:pt idx="111">
+                        <c:v>41547</c:v>
+                      </c:pt>
+                      <c:pt idx="112">
+                        <c:v>41517</c:v>
+                      </c:pt>
+                      <c:pt idx="113">
+                        <c:v>41486</c:v>
+                      </c:pt>
+                      <c:pt idx="114">
+                        <c:v>41455</c:v>
+                      </c:pt>
+                      <c:pt idx="115">
+                        <c:v>41425</c:v>
+                      </c:pt>
+                      <c:pt idx="116">
+                        <c:v>41394</c:v>
+                      </c:pt>
+                      <c:pt idx="117">
+                        <c:v>41364</c:v>
+                      </c:pt>
+                      <c:pt idx="118">
+                        <c:v>41333</c:v>
+                      </c:pt>
+                      <c:pt idx="119">
+                        <c:v>41305</c:v>
+                      </c:pt>
+                      <c:pt idx="120">
+                        <c:v>41274</c:v>
+                      </c:pt>
+                      <c:pt idx="121">
+                        <c:v>41243</c:v>
+                      </c:pt>
+                      <c:pt idx="122">
+                        <c:v>41213</c:v>
+                      </c:pt>
+                      <c:pt idx="123">
+                        <c:v>41182</c:v>
+                      </c:pt>
+                      <c:pt idx="124">
+                        <c:v>41152</c:v>
+                      </c:pt>
+                      <c:pt idx="125">
+                        <c:v>41121</c:v>
+                      </c:pt>
+                      <c:pt idx="126">
+                        <c:v>41090</c:v>
+                      </c:pt>
+                      <c:pt idx="127">
+                        <c:v>41060</c:v>
+                      </c:pt>
+                      <c:pt idx="128">
+                        <c:v>41029</c:v>
+                      </c:pt>
+                      <c:pt idx="129">
+                        <c:v>40999</c:v>
+                      </c:pt>
+                      <c:pt idx="130">
+                        <c:v>40968</c:v>
+                      </c:pt>
+                      <c:pt idx="131">
+                        <c:v>40939</c:v>
+                      </c:pt>
+                      <c:pt idx="132">
+                        <c:v>40908</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet3!$A$1:$A$146</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>m/d/yyyy</c:formatCode>
+                      <c:ptCount val="146"/>
+                      <c:pt idx="0">
+                        <c:v>44926</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>44895</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>44865</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>44834</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>44804</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>44773</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>44742</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>44712</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>44681</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>44651</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>44620</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>44592</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>44561</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>44530</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>44500</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>44469</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>44439</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>44408</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>44377</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>44347</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>44316</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>44286</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>44255</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>44227</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>44196</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>44165</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>44135</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>44104</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>44074</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>44043</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>44012</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>43982</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>43951</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>43921</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>43890</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>43861</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>43830</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>43799</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>43769</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>43738</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>43708</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>43677</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>43646</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>43616</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>43585</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>43555</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>43524</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>43496</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>43465</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>43434</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>43404</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>43373</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>43343</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>43312</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>43281</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>43251</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>43220</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>43190</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>43159</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>43131</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>43100</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>43069</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>43039</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>43008</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>42978</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>42947</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>42916</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>42886</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>42855</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>42825</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
+                        <c:v>42794</c:v>
+                      </c:pt>
+                      <c:pt idx="71">
+                        <c:v>42766</c:v>
+                      </c:pt>
+                      <c:pt idx="72">
+                        <c:v>42735</c:v>
+                      </c:pt>
+                      <c:pt idx="73">
+                        <c:v>42704</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>42674</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>42643</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>42613</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>42582</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>42551</c:v>
+                      </c:pt>
+                      <c:pt idx="79">
+                        <c:v>42521</c:v>
+                      </c:pt>
+                      <c:pt idx="80">
+                        <c:v>42490</c:v>
+                      </c:pt>
+                      <c:pt idx="81">
+                        <c:v>42460</c:v>
+                      </c:pt>
+                      <c:pt idx="82">
+                        <c:v>42429</c:v>
+                      </c:pt>
+                      <c:pt idx="83">
+                        <c:v>42400</c:v>
+                      </c:pt>
+                      <c:pt idx="84">
+                        <c:v>42369</c:v>
+                      </c:pt>
+                      <c:pt idx="85">
+                        <c:v>42338</c:v>
+                      </c:pt>
+                      <c:pt idx="86">
+                        <c:v>42308</c:v>
+                      </c:pt>
+                      <c:pt idx="87">
+                        <c:v>42277</c:v>
+                      </c:pt>
+                      <c:pt idx="88">
+                        <c:v>42247</c:v>
+                      </c:pt>
+                      <c:pt idx="89">
+                        <c:v>42216</c:v>
+                      </c:pt>
+                      <c:pt idx="90">
+                        <c:v>42185</c:v>
+                      </c:pt>
+                      <c:pt idx="91">
+                        <c:v>42155</c:v>
+                      </c:pt>
+                      <c:pt idx="92">
+                        <c:v>42124</c:v>
+                      </c:pt>
+                      <c:pt idx="93">
+                        <c:v>42094</c:v>
+                      </c:pt>
+                      <c:pt idx="94">
+                        <c:v>42063</c:v>
+                      </c:pt>
+                      <c:pt idx="95">
+                        <c:v>42035</c:v>
+                      </c:pt>
+                      <c:pt idx="96">
+                        <c:v>42004</c:v>
+                      </c:pt>
+                      <c:pt idx="97">
+                        <c:v>41973</c:v>
+                      </c:pt>
+                      <c:pt idx="98">
+                        <c:v>41943</c:v>
+                      </c:pt>
+                      <c:pt idx="99">
+                        <c:v>41912</c:v>
+                      </c:pt>
+                      <c:pt idx="100">
+                        <c:v>41882</c:v>
+                      </c:pt>
+                      <c:pt idx="101">
+                        <c:v>41851</c:v>
+                      </c:pt>
+                      <c:pt idx="102">
+                        <c:v>41820</c:v>
+                      </c:pt>
+                      <c:pt idx="103">
+                        <c:v>41790</c:v>
+                      </c:pt>
+                      <c:pt idx="104">
+                        <c:v>41759</c:v>
+                      </c:pt>
+                      <c:pt idx="105">
+                        <c:v>41729</c:v>
+                      </c:pt>
+                      <c:pt idx="106">
+                        <c:v>41698</c:v>
+                      </c:pt>
+                      <c:pt idx="107">
+                        <c:v>41670</c:v>
+                      </c:pt>
+                      <c:pt idx="108">
+                        <c:v>41639</c:v>
+                      </c:pt>
+                      <c:pt idx="109">
+                        <c:v>41608</c:v>
+                      </c:pt>
+                      <c:pt idx="110">
+                        <c:v>41578</c:v>
+                      </c:pt>
+                      <c:pt idx="111">
+                        <c:v>41547</c:v>
+                      </c:pt>
+                      <c:pt idx="112">
+                        <c:v>41517</c:v>
+                      </c:pt>
+                      <c:pt idx="113">
+                        <c:v>41486</c:v>
+                      </c:pt>
+                      <c:pt idx="114">
+                        <c:v>41455</c:v>
+                      </c:pt>
+                      <c:pt idx="115">
+                        <c:v>41425</c:v>
+                      </c:pt>
+                      <c:pt idx="116">
+                        <c:v>41394</c:v>
+                      </c:pt>
+                      <c:pt idx="117">
+                        <c:v>41364</c:v>
+                      </c:pt>
+                      <c:pt idx="118">
+                        <c:v>41333</c:v>
+                      </c:pt>
+                      <c:pt idx="119">
+                        <c:v>41305</c:v>
+                      </c:pt>
+                      <c:pt idx="120">
+                        <c:v>41274</c:v>
+                      </c:pt>
+                      <c:pt idx="121">
+                        <c:v>41243</c:v>
+                      </c:pt>
+                      <c:pt idx="122">
+                        <c:v>41213</c:v>
+                      </c:pt>
+                      <c:pt idx="123">
+                        <c:v>41182</c:v>
+                      </c:pt>
+                      <c:pt idx="124">
+                        <c:v>41152</c:v>
+                      </c:pt>
+                      <c:pt idx="125">
+                        <c:v>41121</c:v>
+                      </c:pt>
+                      <c:pt idx="126">
+                        <c:v>41090</c:v>
+                      </c:pt>
+                      <c:pt idx="127">
+                        <c:v>41060</c:v>
+                      </c:pt>
+                      <c:pt idx="128">
+                        <c:v>41029</c:v>
+                      </c:pt>
+                      <c:pt idx="129">
+                        <c:v>40999</c:v>
+                      </c:pt>
+                      <c:pt idx="130">
+                        <c:v>40968</c:v>
+                      </c:pt>
+                      <c:pt idx="131">
+                        <c:v>40939</c:v>
+                      </c:pt>
+                      <c:pt idx="132">
+                        <c:v>40908</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-1C65-4849-869C-58973E534D95}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="1865373392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1865373808"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="months"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="1865373808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1865373392"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{482571DC-96F5-53B0-44F3-05B34F9F3BC4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -522,9 +3035,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B0A693B-1F53-4EC2-A52F-5F723A85CDC9}">
   <dimension ref="A1:U47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="83" zoomScaleNormal="55" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F11" sqref="F11"/>
+      <selection pane="topRight" activeCell="N3" sqref="N3:N47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -668,6 +3181,9 @@
       <c r="M3">
         <v>2491.5</v>
       </c>
+      <c r="N3">
+        <v>668008</v>
+      </c>
       <c r="O3">
         <v>1431185</v>
       </c>
@@ -730,6 +3246,9 @@
       <c r="M4">
         <v>2457</v>
       </c>
+      <c r="N4">
+        <v>671476</v>
+      </c>
       <c r="O4">
         <v>1409494</v>
       </c>
@@ -792,6 +3311,9 @@
       <c r="M5">
         <v>2314</v>
       </c>
+      <c r="N5">
+        <v>674943</v>
+      </c>
       <c r="O5">
         <v>1353206</v>
       </c>
@@ -854,6 +3376,9 @@
       <c r="M6">
         <v>2817.5</v>
       </c>
+      <c r="N6">
+        <v>678411</v>
+      </c>
       <c r="O6">
         <v>1341022</v>
       </c>
@@ -916,6 +3441,9 @@
       <c r="M7">
         <v>3674</v>
       </c>
+      <c r="N7">
+        <v>681879</v>
+      </c>
       <c r="O7">
         <v>1247160</v>
       </c>
@@ -978,6 +3506,9 @@
       <c r="M8">
         <v>4187.5</v>
       </c>
+      <c r="N8">
+        <v>685346</v>
+      </c>
       <c r="O8">
         <v>1228701</v>
       </c>
@@ -1040,6 +3571,9 @@
       <c r="M9">
         <v>4730.5</v>
       </c>
+      <c r="N9">
+        <v>688814</v>
+      </c>
       <c r="O9">
         <v>1219022</v>
       </c>
@@ -1102,6 +3636,9 @@
       <c r="M10">
         <v>4829.5</v>
       </c>
+      <c r="N10">
+        <v>692281</v>
+      </c>
       <c r="O10">
         <v>988675</v>
       </c>
@@ -1164,6 +3701,9 @@
       <c r="M11">
         <v>4434.5</v>
       </c>
+      <c r="N11">
+        <v>695749</v>
+      </c>
       <c r="O11">
         <v>975030</v>
       </c>
@@ -1291,6 +3831,9 @@
       <c r="M13">
         <v>4094</v>
       </c>
+      <c r="N13">
+        <v>702684</v>
+      </c>
       <c r="O13">
         <v>1259877</v>
       </c>
@@ -1353,6 +3896,9 @@
       <c r="M14">
         <v>3332</v>
       </c>
+      <c r="N14">
+        <v>706152</v>
+      </c>
       <c r="O14">
         <v>1329658</v>
       </c>
@@ -1415,6 +3961,9 @@
       <c r="M15">
         <v>2594</v>
       </c>
+      <c r="N15">
+        <v>709619</v>
+      </c>
       <c r="O15">
         <v>1315201</v>
       </c>
@@ -1477,6 +4026,9 @@
       <c r="M16">
         <v>2549</v>
       </c>
+      <c r="N16">
+        <v>713087</v>
+      </c>
       <c r="O16">
         <v>1384916</v>
       </c>
@@ -1539,6 +4091,9 @@
       <c r="M17">
         <v>2455</v>
       </c>
+      <c r="N17">
+        <v>716554</v>
+      </c>
       <c r="O17">
         <v>1323265</v>
       </c>
@@ -1601,6 +4156,9 @@
       <c r="M18">
         <v>2486</v>
       </c>
+      <c r="N18">
+        <v>720022</v>
+      </c>
       <c r="O18">
         <v>1278675</v>
       </c>
@@ -1663,6 +4221,9 @@
       <c r="M19">
         <v>2825</v>
       </c>
+      <c r="N19">
+        <v>723490</v>
+      </c>
       <c r="O19">
         <v>1241030</v>
       </c>
@@ -1725,6 +4286,9 @@
       <c r="M20">
         <v>2649</v>
       </c>
+      <c r="N20">
+        <v>726957</v>
+      </c>
       <c r="O20">
         <v>1263728</v>
       </c>
@@ -1787,6 +4351,9 @@
       <c r="M21">
         <v>2597.5</v>
       </c>
+      <c r="N21">
+        <v>730425</v>
+      </c>
       <c r="O21">
         <v>1203375</v>
       </c>
@@ -1849,6 +4416,9 @@
       <c r="M22">
         <v>2465</v>
       </c>
+      <c r="N22">
+        <v>733892</v>
+      </c>
       <c r="O22">
         <v>906399</v>
       </c>
@@ -1911,6 +4481,9 @@
       <c r="M23">
         <v>2554</v>
       </c>
+      <c r="N23">
+        <v>737360</v>
+      </c>
       <c r="O23">
         <v>927361</v>
       </c>
@@ -2038,6 +4611,9 @@
       <c r="M25">
         <v>2172</v>
       </c>
+      <c r="N25">
+        <v>742303</v>
+      </c>
       <c r="O25">
         <v>1248860</v>
       </c>
@@ -2100,6 +4676,9 @@
       <c r="M26">
         <v>1627.5</v>
       </c>
+      <c r="N26">
+        <v>743779</v>
+      </c>
       <c r="O26">
         <v>1358064</v>
       </c>
@@ -2162,6 +4741,9 @@
       <c r="M27">
         <v>1607.5</v>
       </c>
+      <c r="N27">
+        <v>745254</v>
+      </c>
       <c r="O27">
         <v>1553053</v>
       </c>
@@ -2224,6 +4806,9 @@
       <c r="M28">
         <v>1492.5</v>
       </c>
+      <c r="N28">
+        <v>746730</v>
+      </c>
       <c r="O28">
         <v>1552713</v>
       </c>
@@ -2286,6 +4871,9 @@
       <c r="M29">
         <v>1369.5</v>
       </c>
+      <c r="N29">
+        <v>748205</v>
+      </c>
       <c r="O29">
         <v>1570828</v>
       </c>
@@ -2348,6 +4936,9 @@
       <c r="M30">
         <v>1429.5</v>
       </c>
+      <c r="N30">
+        <v>749681</v>
+      </c>
       <c r="O30">
         <v>1685240</v>
       </c>
@@ -2410,6 +5001,9 @@
       <c r="M31">
         <v>1232</v>
       </c>
+      <c r="N31">
+        <v>751157</v>
+      </c>
       <c r="O31">
         <v>1361246</v>
       </c>
@@ -2472,6 +5066,9 @@
       <c r="M32">
         <v>1380</v>
       </c>
+      <c r="N32">
+        <v>752632</v>
+      </c>
       <c r="O32">
         <v>1407185</v>
       </c>
@@ -2534,6 +5131,9 @@
       <c r="M33">
         <v>1448.5</v>
       </c>
+      <c r="N33">
+        <v>754108</v>
+      </c>
       <c r="O33">
         <v>1182731</v>
       </c>
@@ -2596,6 +5196,9 @@
       <c r="M34">
         <v>1639</v>
       </c>
+      <c r="N34">
+        <v>755583</v>
+      </c>
       <c r="O34">
         <v>1141258</v>
       </c>
@@ -2658,6 +5261,9 @@
       <c r="M35">
         <v>1975.5</v>
       </c>
+      <c r="N35">
+        <v>757059</v>
+      </c>
       <c r="O35">
         <v>940263</v>
       </c>
@@ -2714,6 +5320,9 @@
       <c r="M36">
         <v>1856.5</v>
       </c>
+      <c r="N36">
+        <v>758535</v>
+      </c>
       <c r="O36">
         <v>1032330</v>
       </c>
@@ -2770,6 +5379,9 @@
       <c r="M37">
         <v>1408</v>
       </c>
+      <c r="N37">
+        <v>757620</v>
+      </c>
       <c r="O37">
         <v>1181359</v>
       </c>
@@ -2826,6 +5438,9 @@
       <c r="M38">
         <v>1135</v>
       </c>
+      <c r="N38">
+        <v>756706</v>
+      </c>
       <c r="O38">
         <v>1372802</v>
       </c>
@@ -2882,6 +5497,9 @@
       <c r="M39">
         <v>1170</v>
       </c>
+      <c r="N39">
+        <v>755791</v>
+      </c>
       <c r="O39">
         <v>1358799</v>
       </c>
@@ -2938,6 +5556,9 @@
       <c r="M40">
         <v>1224</v>
       </c>
+      <c r="N40">
+        <v>754877</v>
+      </c>
       <c r="O40">
         <v>1394390</v>
       </c>
@@ -2994,6 +5615,9 @@
       <c r="M41">
         <v>1090.5</v>
       </c>
+      <c r="N41">
+        <v>753962</v>
+      </c>
       <c r="O41">
         <v>1439771</v>
       </c>
@@ -3050,6 +5674,9 @@
       <c r="M42">
         <v>1100.5</v>
       </c>
+      <c r="N42">
+        <v>753048</v>
+      </c>
       <c r="O42">
         <v>1275280</v>
       </c>
@@ -3106,6 +5733,9 @@
       <c r="M43">
         <v>1106</v>
       </c>
+      <c r="N43">
+        <v>752134</v>
+      </c>
       <c r="O43">
         <v>1342780</v>
       </c>
@@ -3162,6 +5792,9 @@
       <c r="M44">
         <v>1160.5</v>
       </c>
+      <c r="N44">
+        <v>751219</v>
+      </c>
       <c r="O44">
         <v>1328434</v>
       </c>
@@ -3218,6 +5851,9 @@
       <c r="M45">
         <v>1155</v>
       </c>
+      <c r="N45">
+        <v>750305</v>
+      </c>
       <c r="O45">
         <v>1304090</v>
       </c>
@@ -3274,6 +5910,9 @@
       <c r="M46">
         <v>1286.5</v>
       </c>
+      <c r="N46">
+        <v>749390</v>
+      </c>
       <c r="O46">
         <v>1221058</v>
       </c>
@@ -3329,6 +5968,9 @@
       </c>
       <c r="M47">
         <v>1462</v>
+      </c>
+      <c r="N47">
+        <v>748476</v>
       </c>
       <c r="O47">
         <v>1443961</v>
@@ -3537,4 +6179,1489 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21E151C8-2477-4954-BFE2-D8B496FC254E}">
+  <dimension ref="A1:C133"/>
+  <sheetViews>
+    <sheetView topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:C48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
+        <v>44926</v>
+      </c>
+      <c r="B1">
+        <v>657605.99999998498</v>
+      </c>
+      <c r="C1">
+        <v>657605</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>44895</v>
+      </c>
+      <c r="B2">
+        <v>661073.58333331905</v>
+      </c>
+      <c r="C2">
+        <v>661073</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>44865</v>
+      </c>
+      <c r="B3">
+        <v>664541.16666665301</v>
+      </c>
+      <c r="C3">
+        <v>664541</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>44834</v>
+      </c>
+      <c r="B4">
+        <v>668008.74999998696</v>
+      </c>
+      <c r="C4">
+        <v>668008</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>44804</v>
+      </c>
+      <c r="B5">
+        <v>671476.33333332103</v>
+      </c>
+      <c r="C5">
+        <v>671476</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>44773</v>
+      </c>
+      <c r="B6">
+        <v>674943.91666665499</v>
+      </c>
+      <c r="C6">
+        <v>674943</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>44742</v>
+      </c>
+      <c r="B7">
+        <v>678411.49999998906</v>
+      </c>
+      <c r="C7">
+        <v>678411</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>44712</v>
+      </c>
+      <c r="B8">
+        <v>681879.08333332301</v>
+      </c>
+      <c r="C8">
+        <v>681879</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>44681</v>
+      </c>
+      <c r="B9">
+        <v>685346.66666665697</v>
+      </c>
+      <c r="C9">
+        <v>685346</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>44651</v>
+      </c>
+      <c r="B10">
+        <v>688814.24999999104</v>
+      </c>
+      <c r="C10">
+        <v>688814</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>44620</v>
+      </c>
+      <c r="B11">
+        <v>692281.83333332499</v>
+      </c>
+      <c r="C11">
+        <v>692281</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>44592</v>
+      </c>
+      <c r="B12">
+        <v>695749.41666665894</v>
+      </c>
+      <c r="C12">
+        <v>695749</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>44561</v>
+      </c>
+      <c r="B13">
+        <v>699217</v>
+      </c>
+      <c r="C13">
+        <v>699217</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>44530</v>
+      </c>
+      <c r="B14">
+        <v>702684.58333333302</v>
+      </c>
+      <c r="C14">
+        <v>702684</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>44500</v>
+      </c>
+      <c r="B15">
+        <v>706152.16666666605</v>
+      </c>
+      <c r="C15">
+        <v>706152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>44469</v>
+      </c>
+      <c r="B16">
+        <v>709619.75</v>
+      </c>
+      <c r="C16">
+        <v>709619</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>44439</v>
+      </c>
+      <c r="B17">
+        <v>713087.33333333302</v>
+      </c>
+      <c r="C17">
+        <v>713087</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>44408</v>
+      </c>
+      <c r="B18">
+        <v>716554.91666666605</v>
+      </c>
+      <c r="C18">
+        <v>716554</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>44377</v>
+      </c>
+      <c r="B19">
+        <v>720022.5</v>
+      </c>
+      <c r="C19">
+        <v>720022</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>44347</v>
+      </c>
+      <c r="B20">
+        <v>723490.08333333302</v>
+      </c>
+      <c r="C20">
+        <v>723490</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>44316</v>
+      </c>
+      <c r="B21">
+        <v>726957.66666666605</v>
+      </c>
+      <c r="C21">
+        <v>726957</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>44286</v>
+      </c>
+      <c r="B22">
+        <v>730425.25</v>
+      </c>
+      <c r="C22">
+        <v>730425</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>44255</v>
+      </c>
+      <c r="B23">
+        <v>733892.83333333302</v>
+      </c>
+      <c r="C23">
+        <v>733892</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>44227</v>
+      </c>
+      <c r="B24">
+        <v>737360.41666666605</v>
+      </c>
+      <c r="C24">
+        <v>737360</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B25">
+        <v>740828</v>
+      </c>
+      <c r="C25">
+        <v>740828</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>44165</v>
+      </c>
+      <c r="B26">
+        <v>742303.58333333302</v>
+      </c>
+      <c r="C26">
+        <v>742303</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>44135</v>
+      </c>
+      <c r="B27">
+        <v>743779.16666666605</v>
+      </c>
+      <c r="C27">
+        <v>743779</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B28">
+        <v>745254.75</v>
+      </c>
+      <c r="C28">
+        <v>745254</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>44074</v>
+      </c>
+      <c r="B29">
+        <v>746730.33333333302</v>
+      </c>
+      <c r="C29">
+        <v>746730</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>44043</v>
+      </c>
+      <c r="B30">
+        <v>748205.91666666605</v>
+      </c>
+      <c r="C30">
+        <v>748205</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B31">
+        <v>749681.5</v>
+      </c>
+      <c r="C31">
+        <v>749681</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B32">
+        <v>751157.08333333302</v>
+      </c>
+      <c r="C32">
+        <v>751157</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>43951</v>
+      </c>
+      <c r="B33">
+        <v>752632.66666666605</v>
+      </c>
+      <c r="C33">
+        <v>752632</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B34">
+        <v>754108.25</v>
+      </c>
+      <c r="C34">
+        <v>754108</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>43890</v>
+      </c>
+      <c r="B35">
+        <v>755583.83333333302</v>
+      </c>
+      <c r="C35">
+        <v>755583</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>43861</v>
+      </c>
+      <c r="B36">
+        <v>757059.41666666605</v>
+      </c>
+      <c r="C36">
+        <v>757059</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B37">
+        <v>758535</v>
+      </c>
+      <c r="C37">
+        <v>758535</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>43799</v>
+      </c>
+      <c r="B38">
+        <v>757620.58333333302</v>
+      </c>
+      <c r="C38">
+        <v>757620</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>43769</v>
+      </c>
+      <c r="B39">
+        <v>756706.16666666605</v>
+      </c>
+      <c r="C39">
+        <v>756706</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B40">
+        <v>755791.75</v>
+      </c>
+      <c r="C40">
+        <v>755791</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>43708</v>
+      </c>
+      <c r="B41">
+        <v>754877.33333333302</v>
+      </c>
+      <c r="C41">
+        <v>754877</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>43677</v>
+      </c>
+      <c r="B42">
+        <v>753962.91666666605</v>
+      </c>
+      <c r="C42">
+        <v>753962</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B43">
+        <v>753048.5</v>
+      </c>
+      <c r="C43">
+        <v>753048</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>43616</v>
+      </c>
+      <c r="B44">
+        <v>752134.08333333302</v>
+      </c>
+      <c r="C44">
+        <v>752134</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>43585</v>
+      </c>
+      <c r="B45">
+        <v>751219.66666666605</v>
+      </c>
+      <c r="C45">
+        <v>751219</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B46">
+        <v>750305.25</v>
+      </c>
+      <c r="C46">
+        <v>750305</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>43524</v>
+      </c>
+      <c r="B47">
+        <v>749390.83333333302</v>
+      </c>
+      <c r="C47">
+        <v>749390</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>43496</v>
+      </c>
+      <c r="B48">
+        <v>748476.41666666605</v>
+      </c>
+      <c r="C48">
+        <v>748476</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B49">
+        <v>747562</v>
+      </c>
+      <c r="C49">
+        <v>747562</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>43434</v>
+      </c>
+      <c r="B50">
+        <v>747670.16666666605</v>
+      </c>
+      <c r="C50">
+        <v>747670</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>43404</v>
+      </c>
+      <c r="B51">
+        <v>747778.33333333302</v>
+      </c>
+      <c r="C51">
+        <v>747778</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B52">
+        <v>747886.5</v>
+      </c>
+      <c r="C52">
+        <v>747886</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>43343</v>
+      </c>
+      <c r="B53">
+        <v>747994.66666666605</v>
+      </c>
+      <c r="C53">
+        <v>747994</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>43312</v>
+      </c>
+      <c r="B54">
+        <v>748102.83333333302</v>
+      </c>
+      <c r="C54">
+        <v>748102</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B55">
+        <v>748211</v>
+      </c>
+      <c r="C55">
+        <v>748211</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>43251</v>
+      </c>
+      <c r="B56">
+        <v>748319.16666666605</v>
+      </c>
+      <c r="C56">
+        <v>748319</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>43220</v>
+      </c>
+      <c r="B57">
+        <v>748427.33333333302</v>
+      </c>
+      <c r="C57">
+        <v>748427</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B58">
+        <v>748535.5</v>
+      </c>
+      <c r="C58">
+        <v>748535</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>43159</v>
+      </c>
+      <c r="B59">
+        <v>748643.66666666605</v>
+      </c>
+      <c r="C59">
+        <v>748643</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>43131</v>
+      </c>
+      <c r="B60">
+        <v>748751.83333333302</v>
+      </c>
+      <c r="C60">
+        <v>748751</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B61">
+        <v>748860</v>
+      </c>
+      <c r="C61">
+        <v>748860</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>43069</v>
+      </c>
+      <c r="B62">
+        <v>748590.83333333302</v>
+      </c>
+      <c r="C62">
+        <v>748590</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>43039</v>
+      </c>
+      <c r="B63">
+        <v>748321.66666666605</v>
+      </c>
+      <c r="C63">
+        <v>748321</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B64">
+        <v>748052.5</v>
+      </c>
+      <c r="C64">
+        <v>748052</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>42978</v>
+      </c>
+      <c r="B65">
+        <v>747783.33333333302</v>
+      </c>
+      <c r="C65">
+        <v>747783</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>42947</v>
+      </c>
+      <c r="B66">
+        <v>747514.16666666605</v>
+      </c>
+      <c r="C66">
+        <v>747514</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B67">
+        <v>747245</v>
+      </c>
+      <c r="C67">
+        <v>747245</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>42886</v>
+      </c>
+      <c r="B68">
+        <v>746975.83333333302</v>
+      </c>
+      <c r="C68">
+        <v>746975</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>42855</v>
+      </c>
+      <c r="B69">
+        <v>746706.66666666605</v>
+      </c>
+      <c r="C69">
+        <v>746706</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B70">
+        <v>746437.5</v>
+      </c>
+      <c r="C70">
+        <v>746437</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>42794</v>
+      </c>
+      <c r="B71">
+        <v>746168.33333333302</v>
+      </c>
+      <c r="C71">
+        <v>746168</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>42766</v>
+      </c>
+      <c r="B72">
+        <v>745899.16666666605</v>
+      </c>
+      <c r="C72">
+        <v>745899</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B73">
+        <v>745630</v>
+      </c>
+      <c r="C73">
+        <v>745630</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>42704</v>
+      </c>
+      <c r="B74">
+        <v>745126.08333333302</v>
+      </c>
+      <c r="C74">
+        <v>745126</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>42674</v>
+      </c>
+      <c r="B75">
+        <v>744622.16666666605</v>
+      </c>
+      <c r="C75">
+        <v>744622</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B76">
+        <v>744118.25</v>
+      </c>
+      <c r="C76">
+        <v>744118</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>42613</v>
+      </c>
+      <c r="B77">
+        <v>743614.33333333302</v>
+      </c>
+      <c r="C77">
+        <v>743614</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>42582</v>
+      </c>
+      <c r="B78">
+        <v>743110.41666666605</v>
+      </c>
+      <c r="C78">
+        <v>743110</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B79">
+        <v>742606.5</v>
+      </c>
+      <c r="C79">
+        <v>742606</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>42521</v>
+      </c>
+      <c r="B80">
+        <v>742102.58333333302</v>
+      </c>
+      <c r="C80">
+        <v>742102</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>42490</v>
+      </c>
+      <c r="B81">
+        <v>741598.66666666605</v>
+      </c>
+      <c r="C81">
+        <v>741598</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B82">
+        <v>741094.75</v>
+      </c>
+      <c r="C82">
+        <v>741094</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>42429</v>
+      </c>
+      <c r="B83">
+        <v>740590.83333333302</v>
+      </c>
+      <c r="C83">
+        <v>740590</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>42400</v>
+      </c>
+      <c r="B84">
+        <v>740086.91666666605</v>
+      </c>
+      <c r="C84">
+        <v>740086</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B85">
+        <v>739583</v>
+      </c>
+      <c r="C85">
+        <v>739583</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>42338</v>
+      </c>
+      <c r="B86">
+        <v>739073.33333333302</v>
+      </c>
+      <c r="C86">
+        <v>739073</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>42308</v>
+      </c>
+      <c r="B87">
+        <v>738563.66666666605</v>
+      </c>
+      <c r="C87">
+        <v>738563</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B88">
+        <v>738054</v>
+      </c>
+      <c r="C88">
+        <v>738054</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>42247</v>
+      </c>
+      <c r="B89">
+        <v>737544.33333333302</v>
+      </c>
+      <c r="C89">
+        <v>737544</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>42216</v>
+      </c>
+      <c r="B90">
+        <v>737034.66666666605</v>
+      </c>
+      <c r="C90">
+        <v>737034</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B91">
+        <v>736525</v>
+      </c>
+      <c r="C91">
+        <v>736525</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>42155</v>
+      </c>
+      <c r="B92">
+        <v>736015.33333333302</v>
+      </c>
+      <c r="C92">
+        <v>736015</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>42124</v>
+      </c>
+      <c r="B93">
+        <v>735505.66666666605</v>
+      </c>
+      <c r="C93">
+        <v>735505</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B94">
+        <v>734996</v>
+      </c>
+      <c r="C94">
+        <v>734996</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>42063</v>
+      </c>
+      <c r="B95">
+        <v>734486.33333333302</v>
+      </c>
+      <c r="C95">
+        <v>734486</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>42035</v>
+      </c>
+      <c r="B96">
+        <v>733976.66666666605</v>
+      </c>
+      <c r="C96">
+        <v>733976</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B97">
+        <v>733467</v>
+      </c>
+      <c r="C97">
+        <v>733467</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>41973</v>
+      </c>
+      <c r="B98">
+        <v>733235.91666666605</v>
+      </c>
+      <c r="C98">
+        <v>733235</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>41943</v>
+      </c>
+      <c r="B99">
+        <v>733004.83333333302</v>
+      </c>
+      <c r="C99">
+        <v>733004</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B100">
+        <v>732773.75</v>
+      </c>
+      <c r="C100">
+        <v>732773</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>41882</v>
+      </c>
+      <c r="B101">
+        <v>732542.66666666605</v>
+      </c>
+      <c r="C101">
+        <v>732542</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>41851</v>
+      </c>
+      <c r="B102">
+        <v>732311.58333333302</v>
+      </c>
+      <c r="C102">
+        <v>732311</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B103">
+        <v>732080.5</v>
+      </c>
+      <c r="C103">
+        <v>732080</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>41790</v>
+      </c>
+      <c r="B104">
+        <v>731849.41666666605</v>
+      </c>
+      <c r="C104">
+        <v>731849</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>41759</v>
+      </c>
+      <c r="B105">
+        <v>731618.33333333302</v>
+      </c>
+      <c r="C105">
+        <v>731618</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B106">
+        <v>731387.25</v>
+      </c>
+      <c r="C106">
+        <v>731387</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>41698</v>
+      </c>
+      <c r="B107">
+        <v>731156.16666666605</v>
+      </c>
+      <c r="C107">
+        <v>731156</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>41670</v>
+      </c>
+      <c r="B108">
+        <v>730925.08333333302</v>
+      </c>
+      <c r="C108">
+        <v>730925</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B109">
+        <v>730694</v>
+      </c>
+      <c r="C109">
+        <v>730694</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <v>41608</v>
+      </c>
+      <c r="B110">
+        <v>729313.66666666605</v>
+      </c>
+      <c r="C110">
+        <v>729313</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
+        <v>41578</v>
+      </c>
+      <c r="B111">
+        <v>727933.33333333302</v>
+      </c>
+      <c r="C111">
+        <v>727933</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
+        <v>41547</v>
+      </c>
+      <c r="B112">
+        <v>726553</v>
+      </c>
+      <c r="C112">
+        <v>726553</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <v>41517</v>
+      </c>
+      <c r="B113">
+        <v>725172.66666666605</v>
+      </c>
+      <c r="C113">
+        <v>725172</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <v>41486</v>
+      </c>
+      <c r="B114">
+        <v>723792.33333333302</v>
+      </c>
+      <c r="C114">
+        <v>723792</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
+        <v>41455</v>
+      </c>
+      <c r="B115">
+        <v>722412</v>
+      </c>
+      <c r="C115">
+        <v>722412</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
+        <v>41425</v>
+      </c>
+      <c r="B116">
+        <v>721031.66666666605</v>
+      </c>
+      <c r="C116">
+        <v>721031</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
+        <v>41394</v>
+      </c>
+      <c r="B117">
+        <v>719651.33333333302</v>
+      </c>
+      <c r="C117">
+        <v>719651</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
+        <v>41364</v>
+      </c>
+      <c r="B118">
+        <v>718271</v>
+      </c>
+      <c r="C118">
+        <v>718271</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
+        <v>41333</v>
+      </c>
+      <c r="B119">
+        <v>716890.66666666605</v>
+      </c>
+      <c r="C119">
+        <v>716890</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
+        <v>41305</v>
+      </c>
+      <c r="B120">
+        <v>715510.33333333302</v>
+      </c>
+      <c r="C120">
+        <v>715510</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
+        <v>41274</v>
+      </c>
+      <c r="B121">
+        <v>714130</v>
+      </c>
+      <c r="C121">
+        <v>714130</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
+        <v>41243</v>
+      </c>
+      <c r="B122">
+        <v>714714.58333333302</v>
+      </c>
+      <c r="C122">
+        <v>714714</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
+        <v>41213</v>
+      </c>
+      <c r="B123">
+        <v>715299.16666666605</v>
+      </c>
+      <c r="C123">
+        <v>715299</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
+        <v>41182</v>
+      </c>
+      <c r="B124">
+        <v>715883.75</v>
+      </c>
+      <c r="C124">
+        <v>715883</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
+        <v>41152</v>
+      </c>
+      <c r="B125">
+        <v>716468.33333333302</v>
+      </c>
+      <c r="C125">
+        <v>716468</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
+        <v>41121</v>
+      </c>
+      <c r="B126">
+        <v>717052.91666666605</v>
+      </c>
+      <c r="C126">
+        <v>717052</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
+        <v>41090</v>
+      </c>
+      <c r="B127">
+        <v>717637.5</v>
+      </c>
+      <c r="C127">
+        <v>717637</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
+        <v>41060</v>
+      </c>
+      <c r="B128">
+        <v>718222.08333333302</v>
+      </c>
+      <c r="C128">
+        <v>718222</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
+        <v>41029</v>
+      </c>
+      <c r="B129">
+        <v>718806.66666666605</v>
+      </c>
+      <c r="C129">
+        <v>718806</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
+        <v>40999</v>
+      </c>
+      <c r="B130">
+        <v>719391.25</v>
+      </c>
+      <c r="C130">
+        <v>719391</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
+        <v>40968</v>
+      </c>
+      <c r="B131">
+        <v>719975.83333333302</v>
+      </c>
+      <c r="C131">
+        <v>719975</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
+        <v>40939</v>
+      </c>
+      <c r="B132">
+        <v>720560.41666666605</v>
+      </c>
+      <c r="C132">
+        <v>720560</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="1">
+        <v>40908</v>
+      </c>
+      <c r="B133">
+        <v>721145</v>
+      </c>
+      <c r="C133">
+        <v>721145</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B147">
+    <sortCondition descending="1" ref="A1:A147"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>